--- a/Presentation and Documentation/TRC - Test Cases.xlsx
+++ b/Presentation and Documentation/TRC - Test Cases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>Details</t>
   </si>
@@ -158,9 +158,6 @@
     <t>gameOver()</t>
   </si>
   <si>
-    <t>funcThrow()</t>
-  </si>
-  <si>
     <t>type()</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
   </si>
   <si>
     <t>Damage info</t>
-  </si>
-  <si>
-    <t>Funtion throw</t>
   </si>
   <si>
     <t>Game over credits</t>
@@ -482,54 +476,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -555,6 +501,54 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -837,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,432 +847,421 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="5" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="5" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="5" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="5">
         <v>7</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="25" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C19" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="25" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="25" t="s">
+      <c r="C24" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="25" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="27" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="25" t="s">
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="25"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="27" t="s">
+      <c r="C33" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="25"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Presentation and Documentation/TRC - Test Cases.xlsx
+++ b/Presentation and Documentation/TRC - Test Cases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GAVasilev19\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisi\2122-the-games--adventures-final-project-rplisitsov19\Presentation and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909DD355-B48F-4F21-B159-1702A2FCF332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Details</t>
   </si>
@@ -129,126 +130,12 @@
   </si>
   <si>
     <t>Navigate through options</t>
-  </si>
-  <si>
-    <t>Functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>void</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  void   </t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   bool</t>
-  </si>
-  <si>
-    <t>gameOver()</t>
-  </si>
-  <si>
-    <t>type()</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>wrongFunc</t>
-  </si>
-  <si>
-    <t>enemyAttack()</t>
-  </si>
-  <si>
-    <t>funcExe()</t>
-  </si>
-  <si>
-    <t>checkFunc</t>
-  </si>
-  <si>
-    <t>andIf</t>
-  </si>
-  <si>
-    <t>checkHp</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>stats</t>
-  </si>
-  <si>
-    <t>preRowFunc</t>
-  </si>
-  <si>
-    <t>enemyStats</t>
-  </si>
-  <si>
-    <t>playerStats</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>setEnemyWpn</t>
-  </si>
-  <si>
-    <t>funcSet()</t>
-  </si>
-  <si>
-    <t>Sets function</t>
-  </si>
-  <si>
-    <t>Sets a weapon to the game enemy</t>
-  </si>
-  <si>
-    <t>Displays player stats</t>
-  </si>
-  <si>
-    <t>Displays enemy stats</t>
-  </si>
-  <si>
-    <t>stats info</t>
-  </si>
-  <si>
-    <t>text info</t>
-  </si>
-  <si>
-    <t>Checks Hp</t>
-  </si>
-  <si>
-    <t>Checks functions</t>
-  </si>
-  <si>
-    <t>Checks the previous funtion</t>
-  </si>
-  <si>
-    <t>Enemy attack info</t>
-  </si>
-  <si>
-    <t>Damage info</t>
-  </si>
-  <si>
-    <t>Game over credits</t>
-  </si>
-  <si>
-    <t>Type info</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,7 +161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,12 +188,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -471,89 +352,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -830,93 +702,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="19" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="15" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="19" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -936,7 +808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -954,7 +826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -974,7 +846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -994,7 +866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -1014,7 +886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>5</v>
       </c>
@@ -1034,7 +906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -1052,7 +924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>7</v>
       </c>
@@ -1070,199 +942,105 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>71</v>
-      </c>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1278,5 +1056,6 @@
     <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>